--- a/ejemplo.xlsx
+++ b/ejemplo.xlsx
@@ -240,11 +240,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="53366784"/>
-        <c:axId val="53368704"/>
+        <c:axId val="70580480"/>
+        <c:axId val="74580352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="53366784"/>
+        <c:axId val="70580480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -274,7 +274,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53368704"/>
+        <c:crossAx val="74580352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -282,7 +282,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53368704"/>
+        <c:axId val="74580352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -311,7 +311,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53366784"/>
+        <c:crossAx val="70580480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -734,10 +734,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,6 +846,11 @@
       <c r="B13">
         <f>B6</f>
         <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
